--- a/1.RobotModel/Parts-Purchased/BOM.xlsx
+++ b/1.RobotModel/Parts-Purchased/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22193" windowHeight="10470"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>https://detail.tmall.com/item.htm?id=611796709407&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2e6c7</t>
   </si>
   <si>
-    <t>2*6*3</t>
+    <t>3*6*2</t>
   </si>
   <si>
     <t>s</t>
@@ -804,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,12 +815,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,16 +1345,16 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.84259259259259" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.2105263157895" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.212962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6315789473684" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5263157894737" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8421052631579" style="1"/>
+    <col min="3" max="3" width="24.6296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5277777777778" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.84259259259259" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1423,7 +1417,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1437,7 +1431,7 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1496,7 +1490,7 @@
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1">

--- a/1.RobotModel/Parts-Purchased/BOM.xlsx
+++ b/1.RobotModel/Parts-Purchased/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Part Name</t>
   </si>
@@ -59,6 +59,15 @@
     <t>零售</t>
   </si>
   <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.71bd2e8dTNd7sB&amp;id=677927264803&amp;_u=q2st8hc2ca1c&amp;sku_properties=-3:-5</t>
+  </si>
+  <si>
+    <t>直径4mm,厚度1mm</t>
+  </si>
+  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -83,7 +92,7 @@
     <t>https://detail.tmall.com/item.htm?spm=a21n57.1.item.2.541a523cZcQnda&amp;priceTId=2147814417214660700112061eb8b6&amp;utparam=%7B%22aplus_abtest%22:%225d147a1acda696c910f97cf760121198%22%7D&amp;id=529656697168&amp;ns=1&amp;abbucket=16&amp;xxc=taobaoSearch</t>
   </si>
   <si>
-    <t>M2*4 M2*6 M2.5*5</t>
+    <t>M2*4 M2*6 M2.5*5 M3*6</t>
   </si>
   <si>
     <t xml:space="preserve">20 of each. </t>
@@ -1342,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84259259259259" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1410,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1437,22 +1446,22 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1480,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1497,11 +1506,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1510,22 +1519,22 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1539,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1581,7 +1590,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1595,27 +1604,42 @@
         <v>53</v>
       </c>
       <c r="D17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.2.541a523cZcQnda&amp;priceTId=2147814417214660700112061eb8b6&amp;utparam=%7B%22aplus_abtest%22:%225d147a1acda696c910f97cf760121198%22%7D&amp;id=529656697168&amp;ns=1&amp;abbucket=16&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.2.541a523cZcQnda&amp;priceTId=2147814417214660700112061eb8b6&amp;utparam=%7B%22aplus_abtest%22:%225d147a1acda696c910f97cf760121198%22%7D&amp;id=529656697168&amp;ns=1&amp;abbucket=16&amp;xxc=taobaoSearch"/>
     <hyperlink ref="B2" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.2.45ba79d1j8nDff&amp;priceTId=2147818c17214662551577531edc58&amp;utparam=%7B%22aplus_abtest%22%3A%2256b89986a748bcfb74372fec26511bbf%22%7D&amp;id=624005504026&amp;ns=1&amp;abbucket=16#detail&amp;xxc=taobaoSearch"/>
     <hyperlink ref="B3" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=556445606114&amp;_u=k2st8hc2dcef"/>
-    <hyperlink ref="B9" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=647328388853&amp;_u=k2st8hc22a77"/>
-    <hyperlink ref="B10" r:id="rId5" display="https://detail.tmall.com/item.htm?id=722946822369&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc21ee3"/>
-    <hyperlink ref="B11" r:id="rId6" display="https://detail.tmall.com/item.htm?id=611796709407&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2e6c7"/>
-    <hyperlink ref="B12" r:id="rId7" display="https://detail.tmall.com/item.htm?id=611796709407&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2e6c7&amp;skuId=4777422306653"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=538025764032&amp;_u=k2st8hc217d7"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://detail.tmall.com/item.htm?id=718672136863&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2ae2e"/>
-    <hyperlink ref="B7" r:id="rId10" display="https://detail.tmall.com/item.htm?spm=a312a.7700824.w4011-16119168128.46.245e721as6hM76&amp;id=39178267251&amp;rn=b5d916a495226c131bbab29d02221680&amp;abbucket=12"/>
-    <hyperlink ref="B4" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=527326501663&amp;_u=k2st8hc287ca&amp;sku_properties=31309:32595472760"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=669383925819&amp;_u=k2st8hc26fde"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.1.6ccb523cQNdHwl&amp;priceTId=2147804217214673637194390e8199&amp;utparam=%7B%22aplus_abtest%22%3A%22dff7325520763528f39c42c649c8fc13%22%7D&amp;id=631585716430&amp;xxc=ad_ztc"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://detail.tmall.com/item.htm?id=618581380263&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc22f44"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.2.6ccb523cQNdHwl&amp;priceTId=2147804217214673637194390e8199&amp;utparam=%7B%22aplus_abtest%22:%22d07ad92075c7b49906c69dc294ab0552%22%7D&amp;id=19634185206&amp;ns=1&amp;abbucket=16&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="B5" r:id="rId16" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.7.50addd97w27Lyn&amp;priceTId=214781aa17214678524634225ef7cd&amp;utparam=%7B%22aplus_abtest%22:%227269cff9939b09af30d54e99c4081a42%22%7D&amp;id=728228890176&amp;ns=1&amp;abbucket=16&amp;skuId=5223257895010"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=647328388853&amp;_u=k2st8hc22a77"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://detail.tmall.com/item.htm?id=722946822369&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc21ee3"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://detail.tmall.com/item.htm?id=611796709407&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2e6c7"/>
+    <hyperlink ref="B13" r:id="rId7" display="https://detail.tmall.com/item.htm?id=611796709407&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2e6c7&amp;skuId=4777422306653"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=538025764032&amp;_u=k2st8hc217d7"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://detail.tmall.com/item.htm?id=718672136863&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc2ae2e"/>
+    <hyperlink ref="B8" r:id="rId10" display="https://detail.tmall.com/item.htm?spm=a312a.7700824.w4011-16119168128.46.245e721as6hM76&amp;id=39178267251&amp;rn=b5d916a495226c131bbab29d02221680&amp;abbucket=12"/>
+    <hyperlink ref="B5" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=527326501663&amp;_u=k2st8hc287ca&amp;sku_properties=31309:32595472760"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;id=669383925819&amp;_u=k2st8hc26fde"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.1.6ccb523cQNdHwl&amp;priceTId=2147804217214673637194390e8199&amp;utparam=%7B%22aplus_abtest%22%3A%22dff7325520763528f39c42c649c8fc13%22%7D&amp;id=631585716430&amp;xxc=ad_ztc"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://detail.tmall.com/item.htm?id=618581380263&amp;spm=a1z09.2.0.0.6f8c2e8daIyqdB&amp;_u=k2st8hc22f44"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.2.6ccb523cQNdHwl&amp;priceTId=2147804217214673637194390e8199&amp;utparam=%7B%22aplus_abtest%22:%22d07ad92075c7b49906c69dc294ab0552%22%7D&amp;id=19634185206&amp;ns=1&amp;abbucket=16&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="B6" r:id="rId16" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.7.50addd97w27Lyn&amp;priceTId=214781aa17214678524634225ef7cd&amp;utparam=%7B%22aplus_abtest%22:%227269cff9939b09af30d54e99c4081a42%22%7D&amp;id=728228890176&amp;ns=1&amp;abbucket=16&amp;skuId=5223257895010"/>
+    <hyperlink ref="B4" r:id="rId17" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.71bd2e8dTNd7sB&amp;id=677927264803&amp;_u=q2st8hc2ca1c&amp;sku_properties=-3:-5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
